--- a/Apitest/INPUT/MailsFile.xlsx
+++ b/Apitest/INPUT/MailsFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\OneDrive\Documents\UiPath\BulkQueueError\Apitest\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D43FD-0337-417F-B03C-A4CEA9B3B688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB080C4-C84D-4D84-A3B1-406554711AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="4125" yWindow="1815" windowWidth="18000" windowHeight="9810" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <x:si>
     <x:t>emails</x:t>
   </x:si>
@@ -43,265 +43,674 @@
     <x:t>emailSentiment</x:t>
   </x:si>
   <x:si>
-    <x:t>no-reply@e.udemymail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It’s Back! Latest Courses - $9.99!</x:t>
+    <x:t>notify-noreply@google.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 nouvelles offres d'emploi pour "RPA" - 1 filtre - 28 avr.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPA
+À proximité du lieu "Crépy-en-Valois"
++ 1 filtre
+Logo
+Développeur nodeJS, electronJS, C# pour Intelligent RPA Agent F/H
+SAP
+SAP France - Paris, 35 Rue d'Alsace, Levallois-Perret, France
+via Neuvoo
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Plessis-Trévise, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+C
+Développeur RPA UIPATH F/H
+Carriere Info
+Carriere-info.fr, 33 Rue du Four, Paris, France
+via BeBee
+Time icon 27 avr. Work icon À plein temps
+Logo
+Business Architect
+UiPath
+Paris, France
+via Talent.com
+Time icon 28 avr. Work icon À plein temps
+I
+Concepteur développeur RPA (BB-26CFE)
+Informatique CDC
+Montrouge, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Alternance-Ingénieur RPA (Robotic Process Information) F/H (TO-90DC4)
+Orange Business Services
+Massy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+V
+RPA Solution Architect F/H2jooble2VISEO
+VISEO
+Boulogne-Billancourt, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+R
+RPA Consultant - Automation Anywhere2jooble2RED - The Global SAP Solutions Provider (BB-27770)
+RED - The Global SAP Solutions Provider
+Paris, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Carrières-sous-Poissy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h (TO-E3D5B)
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Vésinet, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Forward icon Découvrir les offres d'emploi
+Vous recevez cet e-mail, car vous vous êtes inscrit à un service d'alerte sur Google
+Gérer les alertes Se désabonner
+Google Inc., 1600 Amphitheatre Parkway
+Mountain View, CA 94043, États-Unis
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>armand_thiery_homme@news.armandthiery.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indigo vs. Kaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Livraison offerte à domicile dès 59 €
+d'achats &amp; retours gratuits
+Afficher la version en ligne (
+https://lien.armandthiery.fr/u/gm.php?prm=8aiaziX90S_765683290_6419026_174505&amp;_esuh=$6$a44e482e57789033f6ae5b29b34a7201fa351d5e19243a84948f1c3080029eb9
+)
+Armand Thiery (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F
+)
+HOMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FHomme-c-1.htm
+)
+FEMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FFemme-c-2.htm
+)
+CARTE CADEAUX (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcartes_cadeaux.cfm
+)
+CARTE FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fespace_fidelite.cfm
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Indigo vs kaki (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+La couleur de l'indigo pour un look
+estival (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Idée look + on aime les motifs clairs
+associés au jean ! (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Le caractère du kaki pour un look
+aventurier (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Mix &amp; match (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Paiement sécurisé (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+100% PAIEMENT SECURISÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+Livraison gratuite en magasin
+en 48h (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+LIVRAISON OFFERTE
+À DOMICILE DÈS 59 € (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+Retour gratuit en magasin (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+RETOUR
+GRATUIT (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+NOUS CONTACTER (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+SERVICE CLIENT &amp; FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+Tél. 09 69 39 54 10*09 69 39
+54 10* (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+REJOIGNEZ-NOUS SUR
+Facebook (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.facebook.com%2FARMANDTHIERY%2F
+)
+Twitter (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Ftwitter.com%2Farmandthiery
+)
+Instagram (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.instagram.com%2Farmandthiery%2F%3Fhl%3Dfr
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Nos magasins (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+*N° cristal, coût d'un appel local, appel non surtaxé, ouvert du
+lundi au vendredi de 10h à 18h.
+Armand Thiery s'engage à vous
+proposer une large gamme de services :
+- livraison offerte à domicile &amp; en point retrait dès
+59 € d'achats,
+- retour gratuit jusqu'à 30 jours
+après réception de la commande,
+- un paiement 100% sécurisé,
+- un service client disponible par
+téléphone et par mail,
+- le respect de la confidentialité de
+vos données,
+- un site disponible 24h/24h, 7J/7J..
+Si vous souhaitez vous désabonner,
+cliquez ici (
+https://service.armandthiery.fr/unsubscribe/index.html?uid=$userid$&amp;cid=6419026&amp;llid=174505
+)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Too Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jeanriviere@rejoinslemouvement.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ma ferme en Roumanie : ça tourne au drame</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ça y est : j'ai enfin pris possession de la ferme que j'ai
+achetée en Roumanie pour 11 000€.
+Je pensais que tout allait bien se passer le premier jour... mais
+ça à tourné au drame !
+L'ancien propriétaire a abandonné ses chiens sur place, et a
+laissé la maison dans un état proche d'une déchèterie...
+Voici la galère que j'ai vécue en m'y installant... et les
+découvertes étranges que j'ai faites en faisant le tour du
+propriétaire...
+C'est sur YouTube :
+Ma ferme en Roumanie : ça tourne au drame 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS93YXRjaD92PU9vYXJIOGNwSlZJXHUwMDI2X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS93YXRjaD92PU9vYXJIOGNwSlZJXHUwMDI2X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+Excellente journée,
+Jean Rivière.
+---------------------
+Qui est Jean Rivière ? 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5yZWpvaW5zbGVtb3V2ZW1lbnQuY29tL3F1aS1lc3QtamVhbi1yaXZpZXJlP19fcz1kZWxxcnFsemk0ejN5ZHV3NXZsMiJ9 )
+La chaîne YouTube 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy55b3V0dWJlLmNvbS9jaGFubmVsL1VDR0EyNXVlQUM2THVyZjlleUdSQlN3QT9zdWJfY29uZmlybWF0aW9uPTFcdTAwMjZfX3M9ZGVscXJxbHppNHozeWR1dzV2bDIifQ )
+La page Facebook ( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5mYWNlYm9vay5jb20vamVhbnJpdmllcmVtYXJrZXRpbmc_X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 ) 
+Le compte Instagram 
+( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5pbnN0YWdyYW0uY29tL3Jlam9pbnNsZW1vdXZlbWVudC8_X19zPWRlbHFycWx6aTR6M3lkdXc1dmwyIn0 )
+Se désinscrire ( https://t.dripemail2.com/c/eyJhY2NvdW50X2lkIjoiNjczMjg1MSIsImRlbGl2ZXJ5X2lkIjoiNmozOG1xbXhienQ3MTI3OTE4YXkiLCJ1cmwiOiJodHRwczovL3d3dy5nZXRkcmlwLmNvbS9zdWJzY3JpYmVycy9kZWxxcnFsemk0ejN5ZHV3NXZsMi91bnN1YnNjcmliZT9icm9hZGNhc3Q9MzMzNjQ0MjAxXHUwMDI2ZD02ajM4bXFteGJ6dDcxMjc5MThheVx1MDAyNmV4Y2x1ZGVfY2xpY2s9MVx1MDAyNl9fcz1kZWxxcnFsemk0ejN5ZHV3NXZsMiJ9 )
+REF5091 MSA - 41A route des Jeunes Carouge 1227 Suisse
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>armand_thiery_femme@news.armandthiery.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Happy Couleurs...</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Livraison offerte à domicile dès 59 €
+d'achats &amp; retours gratuits
+Afficher la version en ligne (
+https://lien.armandthiery.fr/u/gm.php?prm=8aiaziX90S_765683290_6418619_28864&amp;_esuh=$6$0bcc593b4591b6fa306ab9989cbf23d98284e3b983bb94a867ef3506bfea89b0
+)
+Armand Thiery (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F
+)
+HOMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FHomme-c-1.htm
+)
+FEMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FFemme-c-2.htm
+)
+CARTE CADEAUX (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcartes_cadeaux.cfm
+)
+CARTE FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fespace_fidelite.cfm
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Faites-vous plaisir avec notre sélection
+100 % couleurs vives. (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Acidulées, gaies et vitaminées, elles
+mettront de la bonne humeur dans votre journée ! (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+La pantalon 7/8ème jaune safran (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+La robe en maille rouge fleuri (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+DÉCOUVRIR TOUTES LES COULEURS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Paiement sécurisé (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+100% PAIEMENT SECURISÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+Livraison gratuite en magasin
+en 48h (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+LIVRAISON OFFERTE
+À DOMICILE DÈS 59 € (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+Retour gratuit en magasin (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+RETOUR
+GRATUIT (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+NOUS CONTACTER (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+SERVICE CLIENT &amp; FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+Tél. 09 69 39 54 10*09 69 39
+54 10* (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+REJOIGNEZ-NOUS SUR
+Facebook (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.facebook.com%2FARMANDTHIERY%2F
+)
+Twitter (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Ftwitter.com%2Farmandthiery
+)
+Instagram (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.instagram.com%2Farmandthiery%2F%3Fhl%3Dfr
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Nos magasins (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+*N° cristal, coût d'un appel local, appel non surtaxé, ouvert du
+lundi au vendredi de 10h à 18h.
+Armand Thiery s'engage à vous
+proposer une large gamme de services :
+- livraison offerte à domicile &amp; en point retrait dès
+59 € d'achats,
+- retour gratuit jusqu'à 30 jours
+après réception de la commande,
+- un paiement 100% sécurisé,
+- un service client disponible par
+téléphone et par mail,
+- le respect de la confidentialité de
+vos données,
+- un site disponible 24h/24h, 7J/7J..
+Si vous souhaitez vous désabonner,
+cliquez ici (
+https://service.armandthiery.fr/unsubscribe/index.html?uid=$userid$&amp;cid=6418619&amp;llid=28864
+)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hermes.reply@brighttalk.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Pitch Guidebook: How To Be Pitch Ready</x:t>
   </x:si>
   <x:si>
     <x:t>Empty</x:t>
   </x:si>
   <x:si>
-    <x:t>Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>failed-payments@wayscript.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Your WayScript, Inc. payment was unsuccessful again</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WayScript, Inc.  (https://wayscript.com)
-WayScript, Inc.
-$20.00 payment to WayScript, Inc. was unsuccessful We attempted to charge your Mastercard Identity Check (https://stripe.com/docs/payments/3d-secure) ending in 6164 for your WayScript, Inc. subscription again, but were unsuccessful. Please update your billing information. Update billing information (https://wayscript.com/settings) Questions? Contact us at billing@wayscript.com (billing@wayscript.com)
-Powered by    stripe logo  (https://stripe.com)   |     Learn more about Stripe Invoicing   (https://stripe.com/invoicing)</x:t>
+    <x:t>webmaster@francealumni.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Les jeudis du numériques</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 
+                        RDC 
+							Si ce message ne s'affiche pas correctement,  visualisez l'événement en ligne 
+								 English version
+									INVITATION
+													LES JEUDIS NUMERIQUES
+													Fake News
+																																										Groupe "RDC"
+												Jeudi
+												Avril 2021
+												29
+												Avril 2021
+			Jeudi 29 avril 2021
+									11h00
+													 - 13h00
+			(GMT +1)
+						Institut Français 
+									Halle de la Gombe 
+									Kinshasa
+							Congo, Rép. démocratique
+											Les jeudis numériques de la médiathèque ------------------------------------------ Jeudi 29 avril // 11h // FAKE NEWS
+--------------------------------------------------------- Nombre de places limité, inscrivez vous en appelant au +243 898925635.
+												Voir la page de l'événement
+											Se désabonnerJ'ai oublié mon mot de passe
+                    rdc.francealumni.fr
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NONE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 nouvelles offres d'emploi pour "RPA" - 28 avr.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPA
+À proximité du lieu "Crépy-en-Valois"
+Logo
+Développeur nodeJS, electronJS, C# pour Intelligent RPA Agent F/H
+SAP
+SAP France - Paris, 35 Rue d'Alsace, Levallois-Perret, France
+via Neuvoo
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Plessis-Trévise, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+C
+Développeur RPA UIPATH F/H
+Carriere Info
+Carriere-info.fr, 33 Rue du Four, Paris, France
+via BeBee
+Time icon 27 avr. Work icon À plein temps
+Logo
+Business Architect
+UiPath
+Paris, France
+via Talent.com
+Time icon 28 avr. Work icon À plein temps
+I
+Concepteur développeur RPA (BB-26CFE)
+Informatique CDC
+Montrouge, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Alternance-Ingénieur RPA (Robotic Process Information) F/H (TO-90DC4)
+Orange Business Services
+Massy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+V
+RPA Solution Architect F/H2jooble2VISEO
+VISEO
+Boulogne-Billancourt, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+R
+RPA Consultant - Automation Anywhere2jooble2RED - The Global SAP Solutions Provider (BB-27770)
+RED - The Global SAP Solutions Provider
+Paris, France
+via BeBee
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h (TO-E3D5B)
+Informatique Cdc Groupe Caisse Des Dépôts
+Le Vésinet, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Logo
+Concepteur Développeur Rpa F/h
+Informatique Cdc Groupe Caisse Des Dépôts
+Carrières-sous-Poissy, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Forward icon Découvrir les offres d'emploi
+Vous recevez cet e-mail, car vous vous êtes inscrit à un service d'alerte sur Google
+Gérer les alertes Se désabonner
+Google Inc., 1600 Amphitheatre Parkway
+Mountain View, CA 94043, États-Unis
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>noreply@medium.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OCR with Tesseract, OpenCV and Python | Jaafar Benabderrazak</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Today's highlights
+OCR with Tesseract, OpenCV and Python (https://medium.com/@jaafarbenabderrazak-info/ocr-with-tesseract-opencv-and-python-d2c4ec097866?source=email-ec23be64ab43-1619654539388-digest.reader------0-59------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-1-06f3a884_511b_43fa_ad27_da876948307f----&amp;sectionName=top)
+Optical Character Recognition (OCR) is the conversion of images of typed, handwritten or printed text into…
+Jaafar Benabderrazak (https://medium.com/@jaafarbenabderrazak-info?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+9 min read
+Combining the Stochastic Oscillator With the Bollinger Bands. A Simple Yet… (https://medium.com/@kaabar-sofien/combining-the-stochastic-oscillator-with-the-bollinger-bands-a-simple-yet-profitable-strategy-3b5364801b42?source=email-ec23be64ab43-1619654539388-digest.reader------1-83------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-1-06f3a884_511b_43fa_ad27_da876948307f----&amp;sectionName=top)
+When Simplicity Performs Better Than Complexity. A Python Study.
+Sofien Kaabar (https://medium.com/@kaabar-sofien?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in The Startup (https://medium.com/swlh?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+10 min read
+A simple chatbot using Python and NLTK (https://medium.com/@irisjestin/a-simple-chatbot-using-python-and-nltk-c413b40e9441?source=email-ec23be64ab43-1619654539388-digest.reader------2-58------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-1-06f3a884_511b_43fa_ad27_da876948307f----&amp;sectionName=top)
+A chatbot is an artificially intelligent software that can simulate human conversation with its users in a…
+Iris Jestin (https://medium.com/@irisjestin?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Analytics Vidhya (https://medium.com/analytics-vidhya?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+11 min read
+Simple intent recognition and question answering with DeepPavlov (https://medium.com/@vaskon/simple-intent-recognition-and-question-answering-with-deeppavlov-c54ccf5339a9?source=email-ec23be64ab43-1619654539388-digest.reader------3-59------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-1-06f3a884_511b_43fa_ad27_da876948307f----&amp;sectionName=top)
+This article is part of an ongoing series on the DeepPavlov framework. You can also check out the full list…
+Vasily Konovalov (https://medium.com/@vaskon?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in DeepPavlov (https://medium.com/deeppavlov?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+6 min read
+From creators you're enjoying
+1. If You Want Your Content To Stand Out, Learn When To Break The Rules (https://medium.com/@thestartup_/1-if-you-want-your-content-to-stand-out-learn-when-to-break-the-rules-1113884dfc92?source=email-ec23be64ab43-1619654539388-digest.reader------0-0------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-33-6ebfdcea_ee26_46ca_b251_e5039d95e170----&amp;sectionName=fromCreatorsYouAreEnjoying)
+Have a little fun.
+The Startup (https://medium.com/@thestartup_?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in The Startup (https://medium.com/swlh?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+3 min read
+In case you missed it
+Natural Language Processing: The future of e-Commerce product search (https://medium.com/@icecreamlabs/natural-language-processing-the-future-of-e-commerce-product-search-32d235fc04bb?source=email-ec23be64ab43-1619654539388-digest.reader------0-71------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-27-21209907_3533_43f7_87b0_e5dcef798b88----&amp;sectionName=icymi)
+There is a plethora of content available today and is growing by leaps and bounds every day. There is a need…
+IceCream Labs (https://medium.com/@icecreamlabs?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+4 min read
+Natural Language Processing and Social Media (https://medium.com/@paldesk/natural-language-processing-and-social-media-8e7378737d00?source=email-ec23be64ab43-1619654539388-digest.reader------1-71------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-27-21209907_3533_43f7_87b0_e5dcef798b88----&amp;sectionName=icymi)
+Find out what is the link between NLP and social media.
+Paldesk (https://medium.com/@paldesk?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+4 min read
+Cheat Sheets for AI, Neural Networks, Machine Learning, Deep Learning &amp; Big… (https://medium.com/@kojouharov/cheat-sheets-for-ai-neural-networks-machine-learning-deep-learning-big-data-678c51b4b463?source=email-ec23be64ab43-1619654539388-digest.reader------2-71------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-27-21209907_3533_43f7_87b0_e5dcef798b88----&amp;sectionName=icymi)
+The Most Complete List of Best AI Cheat Sheets
+Stefan Kojouharov (https://medium.com/@kojouharov?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Becoming Human: Artificial Intelligence Magazine (https://medium.com/becoming-human?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+8 min read
+Quick reads
+Accessing the Dark Web with Python (https://medium.com/@binexishatt/accessing-the-dark-web-with-python-4db013bf4d32?source=email-ec23be64ab43-1619654539388-digest.reader------0-72------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-28-----&amp;sectionName=quickReads)
+Creating new Tor identities to confidently and safely browse the Dark Web
+Alexis Rodriguez (https://medium.com/@binexishatt?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Python in Plain English (https://medium.com/python-in-plain-english?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+4 min read
+These are the programming languages Tesla uses (https://medium.com/@preettheman/these-are-the-programming-languages-tesla-uses-c658aab1a77c?source=email-ec23be64ab43-1619654539388-digest.reader------1-72------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-28-----&amp;sectionName=quickReads)
+Welcome back! These last few weeks we've been talking about some of the most popular languages massive…
+Manpreet Singh (https://medium.com/@preettheman?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+4 min read
+Coding a chatbot builder platform, Part 1: How to make a dumb chatbot (https://medium.com/@susannakosonen/coding-a-chatbot-builder-platform-part-1-how-to-make-a-dumb-chatbot-605be5e84dca?source=email-ec23be64ab43-1619654539388-digest.reader------2-72------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-28-----&amp;sectionName=quickReads)
+How I approached the challenge of programmatically creating "conversations".
+Susanna Kosonen (https://medium.com/@susannakosonen?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+4 min read
+Based on your reading history
+How to scrape ANY website with python and beautiful soup (https://medium.com/@patrick.collins_58673/how-to-scrape-any-website-with-python-and-beautiful-soup-bc84e95a3483?source=email-ec23be64ab43-1619654539388-digest.reader------0-59------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-16-0ef69a10_9631_4e78_b264_c5284fd7fd2c----&amp;sectionName=recommended)
+Python Beautiful soup tutorial for scraping any web page, with youtube video
+Patrick Collins (https://medium.com/@patrick.collins_58673?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Towards Data Science (https://medium.com/towards-data-science?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+5 min read
+Text Classification with State of the Art NLP Library  -  Flair (https://medium.com/@tadejmagajna/text-classification-with-state-of-the-art-nlp-library-flair-b541d7add21f?source=email-ec23be64ab43-1619654539388-digest.reader------1-59------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-16-0ef69a10_9631_4e78_b264_c5284fd7fd2c----&amp;sectionName=recommended)
+Exciting news! A new version of Flair - state-of-the-art NLP library has just been released. Learn how to use…
+Tadej Magajna (https://medium.com/@tadejmagajna?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Towards Data Science (https://medium.com/towards-data-science?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+6 min read
+Real World Example on Web Scraping with Selenium and Beautiful Soup (https://medium.com/@timothyguang/real-world-example-on-web-scraping-with-selenium-and-beautiful-soup-3e615dbc1fa1?source=email-ec23be64ab43-1619654539388-digest.reader------2-59------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-16-0ef69a10_9631_4e78_b264_c5284fd7fd2c----&amp;sectionName=recommended)
+5.39 Billion.
+Timothy Tan (https://medium.com/@timothyguang?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Towards Data Science (https://medium.com/towards-data-science?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+11 min read
+Best in ProgrammingFollow
+On Getting into Google (https://medium.com/@ayomideoyekanmi/on-getting-into-google-8bb1afcfd526?source=email-ec23be64ab43-1619654539388-digest.reader------0-50------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-12-----&amp;sectionName=topic)
+When you fail, try again with wisdom.
+Ayomide Oyekanmi (https://medium.com/@ayomideoyekanmi?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+25 min read
+22 Best Practices to Take Your API Design Skills to the Next Level (https://medium.com/@56faisal/22-best-practices-to-take-your-api-design-skills-to-the-next-level-65569b200b9?source=email-ec23be64ab43-1619654539388-digest.reader------1-50------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-12-----&amp;sectionName=topic)
+Practical advices for designing REST APIs
+Mohammad Faisal (https://medium.com/@56faisal?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Better Programming (https://medium.com/better-programming?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+6 min read
+Best in Machine LearningFollow
+A Simple Guide to Beautiful Visualizations in Python (https://medium.com/@frank-andrade/a-simple-guide-to-beautiful-visualizations-in-python-f564e6b9d392?source=email-ec23be64ab43-1619654539388-digest.reader------0-50------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-12-----&amp;sectionName=topic)
+Customize Matplotlib &amp; Seaborn and forget those ugly blue bars forever.
+Frank Andrade (https://medium.com/@frank-andrade?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+ in Towards Data Science (https://medium.com/towards-data-science?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+11 min read
+Best in JavascriptFollow
+I Used The Web For A Day With JavaScript Turned Off (https://medium.com/@smashingmag/i-used-the-web-for-a-day-with-javascript-turned-off-3df3b6d2e48b?source=email-ec23be64ab43-1619654539388-digest.reader------0-50------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415-12-----&amp;sectionName=topic)
+Many of us are taught to make sure our sites can be used via keyboard. Why is that, and what is it like in…
+Smashing Magazine (https://medium.com/@smashingmag?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415)
+21 min read
+Make this email better.
+Control your recommendations: https://medium.com/me/missioncontrol
+---
+Sent by Medium, P.O. Box 602, San Francisco, CA 94104-0602
+To unsubscribe, visit https://medium.com/me/email-settings/ec23be64ab43/d4f4ab247c3a?source=email-ec23be64ab43-1619654539388-digest.reader-------------------------768d3ea4_8b0a_4ea1_89fd_b5a434bac415&amp;type=social
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 nouvelles offres d'emploi pour "uipath" - 28 avr.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uipath
+À proximité du lieu "Crépy-en-Valois"
+Logo
+Business Architect
+UiPath
+Paris, France
+via Talent.com
+Time icon 28 avr. Work icon À plein temps
+Logo
+Sales Executive - Enterprise Accounts
+UiPath
+France
+via LinkedIn
+Time icon 28 avr. Work icon À plein temps
+Logo
+Sales Executive - Enterprise Accounts
+UiPath
+Paris, France
+via Talent.com
+Time icon 28 avr. Work icon À plein temps
+Logo
+Emerging Product Sales Specialist - Process Mining
+UiPath
+Paris, France
+via Startup Jobs
+Time icon 28 avr. Work icon À plein temps
+C
+Développeur RPA UIPATH F/H
+Carriere Info
+Carriere-info.fr, 33 Rue du Four, Paris, France
+via BeBee
+Time icon 27 avr. Work icon À plein temps
+Logo
+Emerging Product Sales Specialist - Process Mining
+UiPath
+France
+via LinkedIn
+Time icon 28 avr. Work icon À plein temps
+Logo
+Professional Services Go To Market Manager - Paris (TO-0D251)
+UiPath
+Paris, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Logo
+Business Architect
+UiPath
+France
+via LinkedIn
+Time icon 28 avr. Work icon À plein temps
+Logo
+Consultant(e) UiPath H/F (BB-BFB96)
+GFI Informatique SA
+Toulouse, France
+via BeBee
+Time icon 27 avr. Work icon À plein temps
+Logo
+Développeur RPA UiPath H/F (TO-977DF)
+GFI Informatique SA
+Toulouse, France
+via Emplois Trabajo.org
+Time icon 28 avr. Work icon À plein temps
+Forward icon Découvrir les offres d'emploi
+Vous recevez cet e-mail, car vous vous êtes inscrit à un service d'alerte sur Google
+Gérer les alertes Se désabonner
+Google Inc., 1600 Amphitheatre Parkway
+Mountain View, CA 94043, États-Unis
+</x:t>
   </x:si>
   <x:si>
     <x:t>en</x:t>
   </x:si>
   <x:si>
-    <x:t>NEU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobalerts-noreply@linkedin.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 nouvelles offres d’emploi pour “rpa”</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LinkedIn |  Votre alerte Emploi pour rpa (France)
----------------------------------------------------------
-Développeur RPA confirmé H/F Aix-en-Provence
-Capgemini
-Provence-Alpes-Côte d’Azur, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2521487003?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=wHj%2FF9bT12Xu9zp3cnoTqw%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-2-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-2-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-(Futur) Spécialiste de la RPA F/H
-Talan
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498083943?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=cYW99ZoZnPNiVIvPpUD7IA%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-3-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-3-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA
-1UP
-Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498063549?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=zBGWH%2FrlKidnlyvjbjHE4g%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-4-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-4-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA junior H/F Aix-en-Provence
-Capgemini
-Provence-Alpes-Côte d’Azur, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2521484147?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=%2BatkHX%2ByP88VIM8100i7Rw%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-5-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-5-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Consultant RPA Technique H/F
-onepoint
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2506786512?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=sPb0%2F32i9U1hPghAVmO26A%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-6-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-6-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA UIPATH F/H
-Carriere-info.fr
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498024890?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=mfEQ%2FItNiyg8xvh2oFstiQ%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-7-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-7-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Voir toutes les offres d’emploi sur LinkedIn https://www.linkedin.com/comm/jobs/search?savedSearchId=910509853&amp;origin=JOB_ALERT_EMAIL&amp;alertAction=viewjobs&amp;f_TPR=a1619477190-&amp;savedSearchAuthToken=1%26AQH_SLtB9_lQIgAAAXkVg_WGaK94g16HWxFYj8Iow_Pj79bSv8IHHF3wv8J4lkCE73M417i307naNoTrdxwtELvsazmrprykvb9pPn6m8NxqCtHcQketydVD7pE8XhAHtc7a0oZerxJ5LOI7vv8PD59oBHFwH7iDCQy7lDhcUcsi2HcEAjDqVlHxuZXc-JeAwrkhSAMhHElXV5XWr101vTDgcfv6yAHyMItpryN6JqKRSQ8ufSo7cl1kKg5cH_AprVx1AwZ-SwIXe1gm33IkPwvL3kQ8H0TjEduSLWzr-wcMW4gAYg%26Ac2qRpUpugBB1MztXY01Hpx57__p&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-0-member_teaser_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-0-member_teaser_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Ejserp%7Esearch&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Découvrez les offres d’emploi pour lesquels vous seriez un bon candidat
-Essayez Premium gratuitement :  https://www.linkedin.com/comm/premium/products/?family=jss&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-15-premium_upsell_top_applicant_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-15-premium_upsell_top_applicant_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-neptune%2Fpremium%2Eproducts&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
-.....................................
-Gérez vos alertes Emploi : https://www.linkedin.com/comm/jobs/alerts?midToken=AQHMiZj-39I5zQ&amp;amp;midSig=0bDDiuWxJnU9I1&amp;amp;trk=eml-email_job_alert_digest_01-footer-13-manage_alert&amp;amp;trkEmail=eml-email_job_alert_digest_01-footer-13-manage_alert-null-3ecr6y%7Eko0mdeos%7Ehz-null-job%7Ealert%7Emanager&amp;amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
-Se désabonner : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;amp;a=jobs-jserp-search-mirror&amp;amp;midToken=AQHMiZj-39I5zQ&amp;amp;midSig=0bDDiuWxJnU9I1&amp;amp;ek=email_job_alert_digest_01&amp;amp;li=14&amp;amp;m=footer&amp;amp;ts=delete_alert&amp;amp;alertAction=delete&amp;amp;savedSearchId=910509853
-Aide : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;ek=email_job_alert_digest_01&amp;li=37&amp;m=footer&amp;ts=help&amp;articleId=67
-Vous recevez des e-mails de notifications de LinkedIn.
-Cet e-mail est destiné à Franck MONGO (Développeur RPA &amp; AI _xD83E__xDD16_ | Ingénieur Nucléaire).
-Découvrez pourquoi nous précisons ceci : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;ek=email_job_alert_digest_01&amp;articleId=4788
-© 2021 LinkedIn Ireland Unlimited Company, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn est le nom commercial déposé de LinkedIn Ireland Unlimited Company. LinkedIn et le logo de LinkedIn sont des marques déposées de LinkedIn.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Too Long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no-reply@people-doc.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New sign in detected on your MyPeopleDoc account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Hello,
-We just detected a sign in to your MyPeopleDoc eVault from an unusual location.
-Why you are receiving this message:
-There was a sign in on your MyPeopleDoc account from a network environment (IP address) that is different from your usual location.
-This could happen when the device you’re using is signing in to a network for the first time (e.g., a new Wi-Fi network).
-When: 2021-04-27T20:49:37
-Operating System: Windows 10
-Browser: Chrome 90.0.4430
-IP address: 2a01:e0a:4ee:6d20:64b7:88ee:100a:86e6
-If this was you, you can ignore this message.
-If you believe someone else has accessed your account, please change your password by clicking here : https://www.mypeopledoc.com/#/recover.
-For more information, please read the following article in our Knowledge Base.
-New connection alert system to the MyPeopleDoc electronic vault (https://support.mypeopledoc.com/hc/en-us/articles/360020692340-New-connection-alert-system-to-the-MyPeopleDoc-electronic-vault )
-If you have any questions, don’t hesitate to reach out to our support team.
-For a reinforced level of security, we strongly recommend that you activate 2-factor authentication (via the reception of an SMS on your mobile phone),
-for this, please check the article “Secure your account with the 2-factor authentication steps” on our Support page." (https://support.mypeopledoc.com/hc/en-us/articles/115001316011-Secure-your-account-with-the-2-step-verification)
-Data security is everyone’s responsibility.
------------------------------
-Need help? Visit http://support.mypeopledoc.com
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>premium@academia-mail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50% Off, 2 days only - “F. Mongo”: 1 new Mention in a paper uploaded to Academia by someone in Bloomington, United States</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Dear Franck,
-The name “F. Mongo” was mentioned in a paper by someone in Bloomington, United States that was recently discovered by Academia.
-Follow the link below to see all of your mentions:
-https://www.academia.edu/keypass/UkRUNUpWSFJ0SWN0NjZpQWI2aHNVTHFFUkNMaE4zS2FNVkJ6N3dvUmVEcz0tLXJBZmQyL3phek0yVkRDbFRMcmcwTVE9PQ==--06bae480a9dc926dcc99ddea5d97db45ef563ea6/t/mhjct-PyvPbTA-bj6823/upgrade?feature=name_mentions&amp;premium_discount_coupon=JCXSDFI&amp;trigger=new-name-mentions
------
-Follow the link below to disable these notifications:
-https://academia.edu/keypass/UkRUNUpWSFJ0SWN0NjZpQWI2aHNVTHFFUkNMaE4zS2FNVkJ6N3dvUmVEcz0tLXJBZmQyL3phek0yVkRDbFRMcmcwTVE9PQ==--06bae480a9dc926dcc99ddea5d97db45ef563ea6/t/mhjct-PyvPbTA-bj6823/confirm_unsubscribe/new_mentions
-Academia.edu, 580 California St., Suite 400, San Francisco, CA, 94104
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>recommendations@explore.pinterest.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Balcon Amenagement, Habillage Mur Exterieur et autres recherches tendance</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">    Balcon Amenagement
-    Habillage Mur Exterieur
-    Brise Vue Terrasse
-    Piscines De Rêve
-    Palissade Jardin
-    Parterre Devant Maison
-    Cuisine Extérieure Moderne
-    Mode Vintage Années 90
-    Projets De Bricoleur
-    Décorer Piscine Hors Sol
-Pinterest
-651 Brannan Street, San Francisco, CA, 94107
-    Centre d'aide: https://post.pinterest.com/f/a/gHoBfpT9dbCLHsw1Cl8RCQ~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fhelp%2F%3Fsource%3Demail_footer%26amp%3Butm_campaign%3Dtrending_searches%26amp%3Be_t%3D9e966ad02a654c81a83e81f4494c49aa%26amp%3Be_t_s%3Dfooter%26amp%3Butm_source%3D31%26amp%3Butm_medium%3D2031
-    Politique de confidentialité: https://post.pinterest.com/f/a/FpBST1K7bJXaMGrm2d5Ikw~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fpolicy%2Fprivacy-policy%2F
-    Conditions d'utilisation: https://post.pinterest.com/f/a/_oWlojLmso51_7zdqNtsjQ~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2F_%2F_%2Fpolicy%2Fterms-of-service%2F
-    Se désabonner: https://post.pinterest.com/f/a/ARqEBg3rAdiS1EduS42u-Q~~/AAAAAQA~/RgRiauwcPwRXCXBpbnRlcmVzdEIKYIEcZ4hgnTqpaFIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAAA~~?target=https%3A%2F%2Fwww.pinterest.com%2Femail%2Funsubscribe%2F%3Fuser_id%3DNTQ3ODkxMjQ4MzI1NzQ1MTMz%26amp%3Bod%3DC6HtV%252BQ5pOBIYbFtab0OCmsinA2KVMIrDt9AY1OsZdIOtmtQqur5JWkfFqv%252BdmIw3mqRHSsGwbGKB5Aa0AIk25YPgol2RAapw0hQSc165%252FeoH3Yv06JkcxLywqSav9gPgujRonnDZy65xXaEaOXldR9Pyow9Sj9jFaiFJY%252FeWZ9gwOyACBGSQkt4rA7EqYU%252B%252BGfCfSMZe1TlIpViAkqEobKv0%252BGbrZG4SDBxtiUlM%252FHr2kfXpSrANoPaq5MRbeUBg2qI8yUNVa0fOjikRAD310cx2wtFym8uLuPxCUOa4kROswZo9IvITptjHyWhzOVejKntkSUVzaTAT5oT5qwBe9HFTcFhknu0bKIqasmG7C3Gy%252Bp7JvROC5Shj1vIfxBXfoiHwgKXgRnPbIn0fB4zQiTgts4pfPH9QzTMxY%252FfxG8LiBsdC2nm40RqP20bCfBz%26amp%3Butm_campaign%3Dtrending_searches%26amp%3Be_t%3D9e966ad02a654c81a83e81f4494c49aa%26amp%3Be_t_s%3Dfooter%26amp%3Butm_source%3D31%26amp%3Butm_medium%3D2031
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NONE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>edX@news.edx.org</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Is Purdue University's #1 ranked MSECE program right for you?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Join our webinar event to find out!
-‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌ ‌
-Courses 
-( https://clicks.edx.org/f/a/ptWUF5MsKXXyphILx79CXg~~/AAQRxQA~/RgRiaucdP0QmaHR0cHM6Ly93d3cuZWR4Lm9yZy9zZWFyY2gvP3RhYj1jb3Vyc2VXA3NwY0IKYIEdYohguA3c8lIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAQA~~ ) / Programs 
-( https://clicks.edx.org/f/a/Cw8OhB4sMqmrg9nQYSgnIg~~/AAQRxQA~/RgRiaucdP0QnaHR0cHM6Ly93d3cuZWR4Lm9yZy9zZWFyY2gvP3RhYj1wcm9ncmFtVwNzcGNCCmCBHWKIYLgN3PJSGW1vbmdvZnJhbmNrMjAwNkBnbWFpbC5jb21YBAAAAEA~ ) / My Account 
-( https://clicks.edx.org/f/a/ssOLSlWGZnYTseQRfzN3Sw~~/AAQRxQA~/RgRiaucdP0QdaHR0cHM6Ly9jb3Vyc2VzLmVkeC5vcmcvbG9naW5XA3NwY0IKYIEdYohguA3c8lIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAQA~~ ) Master's Degree in
-Electrical and Computer Engineering from Purdue University 
-( https://clicks.edx.org/f/a/fqZ2Uh1uxTGV7tcnsypE7Q~~/AAQRxQA~/RgRiaucdP0RRaHR0cHM6Ly93d3cuZWR4Lm9yZy9tYXN0ZXJzL29ubGluZS1tYXN0ZXJzLWluLWVsZWN0cmljYWwtYW5kLWNvbXB1dGVyLWVuZ2luZWVyaW5nVwNzcGNCCmCBHWKIYLgN3PJSGW1vbmdvZnJhbmNrMjAwNkBnbWFpbC5jb21YBAAAAEA~ )
-  Join our webinar event 
-( https://clicks.edx.org/f/a/Qia9wxxremv0JQ4hZ7p4TQ~~/AAQRxQA~/RgRiaucdP0RQaHR0cHM6Ly9lZHgtb3JnLnpvb20udXMvd2ViaW5hci9yZWdpc3Rlci85MDE2MTgzNDg4NzU3L1dOX1BCWC1QODN4U0ttdGVVUVpGb0diWHdXA3NwY0IKYIEdYohguA3c8lIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAQA~~ )
- on May 4th, 2021 at 7PM EST to learn everything you need to
-know about the MS in Electrical and Computer Engineering program
-at Purdue University and to have your questions answered LIVE by
-our ECE webinar panelists!
-MSECE webinar panelists include:      ► Dimitri Peroulis,
-Michael and Katherine Birck Head and Reilly Professor of the
-School of Electrical and Computer Engineering    ► Lynn Hegewald,
-ECE Senior Master's Programs Manager    ► Matt Golden, ECE
-Graduate Programs Director Register now
-( https://clicks.edx.org/f/a/Qia9wxxremv0JQ4hZ7p4TQ~~/AAQRxQA~/RgRiaucdP0RQaHR0cHM6Ly9lZHgtb3JnLnpvb20udXMvd2ViaW5hci9yZWdpc3Rlci85MDE2MTgzNDg4NzU3L1dOX1BCWC1QODN4U0ttdGVVUVpGb0diWHdXA3NwY0IKYIEdYohguA3c8lIZbW9uZ29mcmFuY2syMDA2QGdtYWlsLmNvbVgEAAAAQA~~ )
-  edX is the trusted platform for education and learning.
-Save 10% on select programs! Click here 
-( https://clicks.edx.org/f/a/GediK7CAkTDiHKRWMiKHmg~~/AAQRxQA~/RgRiaucdP0QoaHR0cHM6Ly93d3cuZWR4Lm9yZy9iZW5lZml0cy1vZi1idW5kbGluZ1cDc3BjQgpggR1iiGC4DdzyUhltb25nb2ZyYW5jazIwMDZAZ21haWwuY29tWAQAAABA )
-edX for Business ( https://clicks.edx.org/f/a/p_qEfFFvtXglC3psDQ-pJA~~/AAQRxQA~/RgRiaucdP0QZaHR0cHM6Ly9idXNpbmVzcy5lZHgub3JnL1cDc3BjQgpggR1iiGC4DdzyUhltb25nb2ZyYW5jazIwMDZAZ21haWwuY29tWAQAAABA ) — eLearning
-Solutions for Your Company
-© 2021 edX Inc. All rights reserved.
-Update Your Preferences ( https://clicks.edx.org/f/a/A21yxrKLjtzvchmOi3wUGA~~/AAQRxQA~/RgRiaucdP4QVAmh0dHBzOi8vMDYuZW1haWxpbmJvdW5kcHJvY2Vzc2luZy5jb20vZW1haWwvbWFuYWdlX3N1YnNjcmlwdGlvbnMvZHpHM25WTGhJQTk3UFBNOSUyRmdKcjNnJTNEJTNEJTI0YXNxNEx3eU1Xb21ZVTk1U1QlMkZ1Wm5oQ2MlMkJ0MmVvMURHN3RmZVIyckpMNlklM0Q_ZD1leVJWM1BsM2lHSE52dlI3dGFXYzhnJTNEJTNEJTI0djRvMW1tSHNrMXlscW9LenRQaVc2UUthbVdXenZKNTVhTGE0Rno1akIzVjglMkJoTkxHN1RFMFc2SnVRN2glMEFrM05sMDJSZFZhUExpd0VFVndtYnE4ZlI0QzNxR210djJWSUZVdG1JVmRHQjBVcWVJTkt4SUtlT2hSRWglMEFHb205akglMkJwbmc3Z2R4dHl4UXglMkJoWTUyYSUyQmdYWjhHajIlMkZjTnZuMmpUOWV0Z21MWVJwSlhjR3BLRkNGUyUwQVVheTdIYUhFSTJYNTlhQkg2R0hUckNHdExnNGVCODNQT1hlaThTZ0txVzRZWm53c1ExS2oxQUpjbWlwSiUwQTFEcW5vY0VVNU9nWlMwVTF5cFgyMU0wQ1pydzFUZGVSUCUyQnNPUHdHMDE4VVFNTThOWlZCQmFoOGdONG5qJTBBbTRtd1lFYnUwcEdVcVg2QUsxQnUmMT0xVwNzcGNCCmCBHWKIYLgN3PJSGW1vbmdvZnJhbmNrMjAwNkBnbWFpbC5jb21YBAAAAEA~ ) /
-Unsubscribe ( %7B%24%7Bset_user_to_unsubscribed_url%7D%7D%7D )
-141 Portland St. 9th Floor, Cambridge, MA 02139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hermes.reply@brighttalk.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>How To Drive SMEs Through the Uncertainty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bonjour@superprof.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✨ Vous faites quoi demain Mercredi à 18h ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.facebook.com/events/904861793643093
-Live de la Motivation
-Mercredi 28 avril à 18h
-Bonjour Franck,
-Comme chaque année, Superprof fait équipe avec tous les élèves de Terminale qui passent le Bac.
-Mais en cette période particulière, on a décidé de mettre les bouchées doubles et de vous solliciter pour les booster et les surmotiver _xD83D__xDCAA_
-Faites du bruiiiiiiiiiit !!!
-_xD83D__xDC4F_ Venez encourager nos futurs bacheliers Mercredi 28 avril à 18h sur Facebook https://www.facebook.com/superprof.fr ! Même 5 minutes, ils le méritent !
-_xD83D__xDE08_Cette semaine, on s'occupe des maths ! Matthieu https://www.superprof.fr/agrege-donne-cours-maths-physique-ligne-lycee-prepa.html, professeur agrégé et Ambassadeur Superprof, va ainsi faire un rappel sur les fonctions et livrera pendant plus d'une heure toutes les astuces pour avoir les meilleures notes possibles, réussir son Grand Oral et décrocher son Bac !
-_xD83D__xDD25_ AU PROGRAMME DU LIVE :
-Session collective "Motivation et encouragements"
-	Rappel sur les fonctions de référence et leur composition
-	Tips et astuces du coach
-	Les pièges à éviter au Grand Oral
-	Le Cri de la victoire pour fêter à la fin du live les 1 000 participants présents
-⏰ Rendez-vous mercredi 28 avril à 18h sur Facebook https://www.facebook.com/superprof.fr (événement public, gratuit et ne nécessitant pas de compte). On vous attend nombreux !​
-Rejoindre l'événement https://www.facebook.com/events/904861793643093/
-Unsubscribe http://url7330.superprof.com/asm/unsubscribe/?user_id=7900407&amp;data=uJyJBJMosgqWSeg25MsWY-BQ6-Lb2Eznew7qZ9rQyvwXx0Z_vM0qXW1NxVtVc4xaB0C4_afZEYRSxvoy2PA54yhZ2Y5P1Guwq10toSsh-wX9O2kw9NJaFNXw0CbAnpm85KkPozMqBR6rVAdW_dA8LQtyj3YAWoGehf6gG7tnnPN2aPaO0GY1EpKu3B_JAOYgqmdPisbMDS1HdAGOWoEYRl2uRtjRF4PQE_dpz8JJ8pUYoSSbDomhS702562FdHCvKCRmYtx9AglAd-mG4c0HCLXWbPpncI6O7sGgU9WxRDF5eQzduDnjvZE2pHNZ7zvl7un7CkQwogKG_XO604iDF2F7JeQoAEbIWQwkxiqmGf998Ki24sEpOM20Qnc_1V-7NHLYWT16gJ0zk2Q0v-8e-tDdlxbfmdgcNMhHksXVN0BarKwoTZGKPuccANH_7LE7lyG-55WuE70e253QeDqT_rf7o5w1wxQ-3ELO5fg2uewA6b1WhPeL3hBhooQIBJERBD3SBDg-RGzMwrt3AoBOjJrp2v7SwQ3Sj_lSr3WZGfzpM83eL9zvAXR5YyLtj56gbsKniTlumkaDd39Ac17vFsefkOTon9InxOnCI_9BnJM=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>messaging-digest-noreply@linkedin.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thierry and Surya Narayana sent new messages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vous avez  nouveau message
-.....................................
-Surya Narayana Korivipadu (Process Automation Developer | UiPath Advanced Certified | UiPath Robot Master)
-(https://www.linkedin.com/comm/in/surya-narayana-korivipadu-871031a3?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-4-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
-Lire le message: https://www.linkedin.com/comm/messaging/thread/2-ODZhNGJlZmUtNTQwNC00YTA1LWE0NTctMmFiN2E2YzhjM2QzXzAxMA==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-8-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
-.....................................
-Thierry Jalet (Helping organizations deliver business impact through Intelligent Process Automation)
-(https://www.linkedin.com/comm/in/thierryjalet?trk=eml-msg_digest-body-view_profile&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-7-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fprofile%7Evanity%2Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D)
-Lire le message: https://www.linkedin.com/comm/messaging/thread/2-NjljZmY2ZmQtMTdiZC00NGU5LTlkNWUtOGEzMjEzMDFmOGVhXzAxMg==/?trk=eml-msg_digest-body-reply_to_sender&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;trkEmail=eml-email_member_message-null-10-null-null-3ecr6y%7Eko0c77so%7Eeg-null-neptune%2Fmessaging%2Ethread&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D
-.....................................
-Modifier la fréquence : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=64&amp;m=unsub&amp;ts=freq&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQGYGT1so5fr5QAAAXkUf8-hTVQqIFtSdrpwvE1S9Ygmvjdr4Dnt2XBAn0uhZxmgTccnzSNuZQPiD4rg-P7A34S9lQy-77oqCXxBsRM
-Se désinscrire : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;t=lun&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=63&amp;m=unsub&amp;ts=unsub&amp;eid=3ecr6y-ko0c77so-eg&amp;loid=AQG8VJscI7ZFqwAAAXkUf8-hQCK5GeighNz4HdYx4ElUgcqi1ky9smkSDGNa2zL4bcu7XEuydlmwXI_frUkwa2mvCNjs3m57LSHHkeY
-Aide : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;li=62&amp;m=footer&amp;ts=help&amp;articleId=67
-Vous recevez des e-mails de notifications de LinkedIn.
-Cet e-mail est destiné à Franck MONGO (Développeur RPA &amp; AI _xD83E__xDD16_ | Ingénieur Nucléaire).
-Découvrez pourquoi nous précisons ceci : https://www.linkedin.com/e/v2?e=3ecr6y-ko0c77so-eg&amp;lipi=urn%3Ali%3Apage%3Aemail_email_member_message%3Bk81tQsloS52c1qJYOCQQKQ%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=3GvJFq7xAXTVI1&amp;ek=email_member_message&amp;articleId=4788
-© 2021 LinkedIn Ireland Unlimited Company, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn est le nom commercial déposé de LinkedIn Ireland Unlimited Company. LinkedIn et le logo de LinkedIn sont des marques déposées de LinkedIn.</x:t>
+    <x:t>donotreply_FR@godaddy.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Action requise : Mettre à jour vos informations de paiement</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -365,7 +774,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="140">
+  <x:cellStyleXfs count="120">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -380,66 +789,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1139,82 +1488,95 @@
       <x:c r="B2" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C2" s="8" t="s"/>
+      <x:c r="C2" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="D2" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F2" s="6" t="s"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G2" s="6" t="s"/>
+      <x:c r="H2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="6" t="s"/>
+      <x:c r="G3" s="6" t="s"/>
+      <x:c r="H3" s="6" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="6" t="s"/>
+      <x:c r="G4" s="6" t="s"/>
+      <x:c r="H4" s="6" t="s"/>
     </x:row>
     <x:row r="5" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F5" s="6" t="s"/>
+      <x:c r="G5" s="6" t="s"/>
+      <x:c r="H5" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
+      <x:c r="C6" s="7" t="s"/>
       <x:c r="D6" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="6" t="s"/>
+      <x:c r="G6" s="6" t="s"/>
+      <x:c r="H6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="6" t="s">
@@ -1227,78 +1589,92 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
+      <x:c r="F7" s="6" t="s"/>
+      <x:c r="G7" s="6" t="s"/>
+      <x:c r="H7" s="6" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B8" s="6" t="s">
+      <x:c r="C8" s="7" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="6" t="s"/>
+      <x:c r="G8" s="6" t="s"/>
+      <x:c r="H8" s="6" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B9" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s"/>
       <x:c r="D9" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s"/>
+      <x:c r="G9" s="6" t="s"/>
+      <x:c r="H9" s="6" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B10" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C10" s="7" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B10" s="6" t="s">
+      <x:c r="D10" s="8" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D10" s="8" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s"/>
+      <x:c r="G10" s="6" t="s"/>
       <x:c r="H10" s="6" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="6" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>41</x:v>
-      </x:c>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s"/>
       <x:c r="D11" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s"/>
+      <x:c r="G11" s="6" t="s"/>
+      <x:c r="H11" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
